--- a/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19935" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="5415" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -13,21 +13,28 @@
     <sheet name="NBReqTrackingDetails" sheetId="4" r:id="rId4"/>
     <sheet name="ProvisioningReq" sheetId="5" r:id="rId5"/>
     <sheet name="NBResponse" sheetId="6" r:id="rId6"/>
-    <sheet name="Execution" sheetId="7" r:id="rId7"/>
-    <sheet name="SingleCommandExecution" sheetId="8" r:id="rId8"/>
-    <sheet name="ServiceOrderDetails" sheetId="9" r:id="rId9"/>
-    <sheet name="ServiceOrder" sheetId="10" r:id="rId10"/>
-    <sheet name="CreateScreen" sheetId="11" r:id="rId11"/>
-    <sheet name="SearchNBOrder" sheetId="12" r:id="rId12"/>
-    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId13"/>
+    <sheet name="Configuration" sheetId="15" r:id="rId7"/>
+    <sheet name="SearchSBDevice" sheetId="16" r:id="rId8"/>
+    <sheet name="EditSBDeviceDetails" sheetId="17" r:id="rId9"/>
+    <sheet name="CommandList" sheetId="18" r:id="rId10"/>
+    <sheet name="UpdateCommand" sheetId="19" r:id="rId11"/>
+    <sheet name="ReloadCache" sheetId="20" r:id="rId12"/>
+    <sheet name="Execution" sheetId="7" r:id="rId13"/>
+    <sheet name="SingleCommandExecution" sheetId="8" r:id="rId14"/>
+    <sheet name="ServiceOrderDetails" sheetId="9" r:id="rId15"/>
+    <sheet name="ServiceOrder" sheetId="10" r:id="rId16"/>
+    <sheet name="CreateScreen" sheetId="11" r:id="rId17"/>
+    <sheet name="SearchNBOrder" sheetId="12" r:id="rId18"/>
+    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId19"/>
+    <sheet name="NBSimulatorAddRequest" sheetId="14" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R20"/>
+  <oleSize ref="A1:R16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="205">
   <si>
     <t>entity</t>
   </si>
@@ -83,9 +90,6 @@
     <t>linkProReqResp</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[2]/div[1]/div[1]/div[1]/div[2]/div[1]/div[6]/div[3]/table[1]/tbody[1]/tr[1]/td[9]/div[1]</t>
-  </si>
-  <si>
     <t>linkServiceOrderID</t>
   </si>
   <si>
@@ -146,12 +150,6 @@
     <t>PriorityLevelList</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[3]/ul[1]/li</t>
-  </si>
-  <si>
-    <t>/html[1]/body[1]/div[4]/ul[1]/li</t>
-  </si>
-  <si>
     <t>SIngleCommandInvocationBtn</t>
   </si>
   <si>
@@ -372,6 +370,285 @@
   </si>
   <si>
     <t>(//span[text()='-2'])</t>
+  </si>
+  <si>
+    <t>NBSimulatorMainMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()="NB Simulator"])[1]</t>
+  </si>
+  <si>
+    <t>(//*[text()="NB Simulator"])[2]</t>
+  </si>
+  <si>
+    <t>NBSimulatorOption</t>
+  </si>
+  <si>
+    <t>radioBtnJMS</t>
+  </si>
+  <si>
+    <t>//input[@value="JMS"]</t>
+  </si>
+  <si>
+    <t>//input[@value="REST_ASYNC"]</t>
+  </si>
+  <si>
+    <t>radioBtnRESTASYNC</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>DataTypeList</t>
+  </si>
+  <si>
+    <t>//input[@value="XML"]</t>
+  </si>
+  <si>
+    <t>/html/body/div[4]/ul/li</t>
+  </si>
+  <si>
+    <t>QueueList</t>
+  </si>
+  <si>
+    <t>QueueListList</t>
+  </si>
+  <si>
+    <t>//input[@value="Select Queue List From Below"]</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div[3]/div/div/div/div/div/div/div[2]/div/div[1]/div[3]/table/tbody[1]/tr[4]/td[2]/textarea</t>
+  </si>
+  <si>
+    <t>AddRequestTextBox</t>
+  </si>
+  <si>
+    <t>AddBtn</t>
+  </si>
+  <si>
+    <t>ResetBtn</t>
+  </si>
+  <si>
+    <t>(//*[text()='ADD'])</t>
+  </si>
+  <si>
+    <t>(//*[text()='Reset'])</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/ul/li</t>
+  </si>
+  <si>
+    <t>(//textarea[@class="z-textbox"])[2]</t>
+  </si>
+  <si>
+    <t>nbRequestTrackingDetails</t>
+  </si>
+  <si>
+    <t>(//*[text()='NB Request Tracking Details'])</t>
+  </si>
+  <si>
+    <t>(//*[text()='SB Device'])</t>
+  </si>
+  <si>
+    <t>SBDeviceMainMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()='Search SB Device'])[1]</t>
+  </si>
+  <si>
+    <t>SearchSBDeviceOptionMenu</t>
+  </si>
+  <si>
+    <t>CreateSBDeviceOptionMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()='Create SB Device'])[1]</t>
+  </si>
+  <si>
+    <t>SearchSBDeviceTab</t>
+  </si>
+  <si>
+    <t>(//*[text()='Search SB Device'])[2]</t>
+  </si>
+  <si>
+    <t>SBDeviceName</t>
+  </si>
+  <si>
+    <t>//input[@title="Device name"]</t>
+  </si>
+  <si>
+    <t>ProtocolDropdown</t>
+  </si>
+  <si>
+    <t>//input[@value="Select From Below"]</t>
+  </si>
+  <si>
+    <t>ProtocolDropdownOption</t>
+  </si>
+  <si>
+    <t>//li[@class="z-comboitem"]</t>
+  </si>
+  <si>
+    <t>(//*[text()="Reset"])</t>
+  </si>
+  <si>
+    <t>ImportBtn</t>
+  </si>
+  <si>
+    <t>(//*[text()="Import"])</t>
+  </si>
+  <si>
+    <t>editFirstSBDevice</t>
+  </si>
+  <si>
+    <t>(//img[@class="z-image"])[8]</t>
+  </si>
+  <si>
+    <t>provisioningURL</t>
+  </si>
+  <si>
+    <t>(//input[@title="Provisioning URL"])</t>
+  </si>
+  <si>
+    <t>(//*[text()='Update'])</t>
+  </si>
+  <si>
+    <t>UpdateBtn</t>
+  </si>
+  <si>
+    <t>openCommandListFirstSBDevice</t>
+  </si>
+  <si>
+    <t>(//img[@class="z-image"])[7]</t>
+  </si>
+  <si>
+    <t>//*[@title='Command Name']</t>
+  </si>
+  <si>
+    <t>commandName</t>
+  </si>
+  <si>
+    <t>SearchCommandBtn</t>
+  </si>
+  <si>
+    <t>(//*[text()='Search Command'])</t>
+  </si>
+  <si>
+    <t>editCommand</t>
+  </si>
+  <si>
+    <t>commandURL</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[4]</t>
+  </si>
+  <si>
+    <t>updateBtn</t>
+  </si>
+  <si>
+    <t>SystemAdminMainMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()='System Administration'])</t>
+  </si>
+  <si>
+    <t>(//*[text()='Reload Cache'])[1]</t>
+  </si>
+  <si>
+    <t>ReloadCacheOptionMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()='Reload Cache'])[3]</t>
+  </si>
+  <si>
+    <t>ReloadCacheBtn</t>
+  </si>
+  <si>
+    <t>(//*[text()='General'])</t>
+  </si>
+  <si>
+    <t>(//*[text()='Process Flow'])[2]</t>
+  </si>
+  <si>
+    <t>GeneralTab</t>
+  </si>
+  <si>
+    <t>ProcessFlowTab</t>
+  </si>
+  <si>
+    <t>GeneralALLCheckbox</t>
+  </si>
+  <si>
+    <t>//input[@name="ALL"]</t>
+  </si>
+  <si>
+    <t>ProcessFlowAll</t>
+  </si>
+  <si>
+    <t>//input[@name="All"]</t>
+  </si>
+  <si>
+    <t>(//*[text()='Proceed'])</t>
+  </si>
+  <si>
+    <t>ProceedBtn</t>
+  </si>
+  <si>
+    <t>OKBtn</t>
+  </si>
+  <si>
+    <t>UpdateBtnWarningPage</t>
+  </si>
+  <si>
+    <t>(//*[text()='Update'])[2]</t>
+  </si>
+  <si>
+    <t>ActivateBtn</t>
+  </si>
+  <si>
+    <t>ReActivateBtn</t>
+  </si>
+  <si>
+    <t>YesDBLookup</t>
+  </si>
+  <si>
+    <t>NoDBLookup</t>
+  </si>
+  <si>
+    <t>(//input[@type="radio"])[1]</t>
+  </si>
+  <si>
+    <t>(//input[@type="radio"])[2]</t>
+  </si>
+  <si>
+    <t>dbLookupDropdown</t>
+  </si>
+  <si>
+    <t>(//input[@value="Select From Below"])[2]</t>
+  </si>
+  <si>
+    <t>dbLookupOptions</t>
+  </si>
+  <si>
+    <t>/html/body/div[6]/ul/li</t>
+  </si>
+  <si>
+    <t>SubmitBtn</t>
+  </si>
+  <si>
+    <t>errorForSyntaticalMistake</t>
+  </si>
+  <si>
+    <t>(//*[text()='Please add valid data as per the Data Type.'])</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div[3]/div/div/div/div/div/div/div[2]/div[2]/div/div/div/div[2]/div/div[6]/div[3]/table/tbody[1]/tr[1]/td[6]/div/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/div[2]/div/div/div[3]/div/div/div/div/div/div/div[2]/div[2]/div/div/div/div[2]/div/div[6]/div[3]/table/tbody[1]/tr/td[9]/div</t>
+  </si>
+  <si>
+    <t>(//button[@type="button"])[7]</t>
   </si>
 </sst>
 </file>
@@ -733,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -785,6 +1062,569 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -801,58 +1641,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -860,54 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -925,26 +1718,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -952,12 +1745,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,10 +1810,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -987,9 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1006,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1014,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1022,23 +1858,137 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1048,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1080,7 +2030,15 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1092,9 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1111,7 +2067,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1119,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1127,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1143,47 +2099,47 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1195,9 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1214,7 +2168,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +2181,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1242,18 +2196,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1263,15 +2217,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1284,58 +2237,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1345,15 +2282,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1366,130 +2304,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +2381,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -1517,42 +2403,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="5415" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="6675" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,23 @@
     <sheet name="CommandList" sheetId="18" r:id="rId10"/>
     <sheet name="UpdateCommand" sheetId="19" r:id="rId11"/>
     <sheet name="ReloadCache" sheetId="20" r:id="rId12"/>
-    <sheet name="Execution" sheetId="7" r:id="rId13"/>
-    <sheet name="SingleCommandExecution" sheetId="8" r:id="rId14"/>
-    <sheet name="ServiceOrderDetails" sheetId="9" r:id="rId15"/>
-    <sheet name="ServiceOrder" sheetId="10" r:id="rId16"/>
-    <sheet name="CreateScreen" sheetId="11" r:id="rId17"/>
-    <sheet name="SearchNBOrder" sheetId="12" r:id="rId18"/>
-    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId19"/>
-    <sheet name="NBSimulatorAddRequest" sheetId="14" r:id="rId20"/>
+    <sheet name="UpdateSystemParameter" sheetId="21" r:id="rId13"/>
+    <sheet name="Execution" sheetId="7" r:id="rId14"/>
+    <sheet name="SingleCommandExecution" sheetId="8" r:id="rId15"/>
+    <sheet name="ServiceOrderDetails" sheetId="9" r:id="rId16"/>
+    <sheet name="ServiceOrder" sheetId="10" r:id="rId17"/>
+    <sheet name="CreateScreen" sheetId="11" r:id="rId18"/>
+    <sheet name="SearchNBOrder" sheetId="12" r:id="rId19"/>
+    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId20"/>
+    <sheet name="NBSimulatorAddRequest" sheetId="14" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:R16"/>
+  <oleSize ref="A1:R20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="230">
   <si>
     <t>entity</t>
   </si>
@@ -84,33 +85,21 @@
     <t>Status</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[1]/div[6]/div[3]/table[1]/tbody[1]/tr[1]/td[8]</t>
-  </si>
-  <si>
     <t>linkProReqResp</t>
   </si>
   <si>
     <t>linkServiceOrderID</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[1]/div[6]/div[3]/table[1]/tbody[1]/tr[1]/td[4]/a[1]</t>
-  </si>
-  <si>
     <t>ServiceOrderID</t>
   </si>
   <si>
     <t>DeliveryStatus</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[1]/div[6]/div[3]/table[1]/tbody[1]/tr[1]/td[12]/span[1]</t>
-  </si>
-  <si>
     <t>NBReqResp</t>
   </si>
   <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[1]/div[1]/div[8]/div[1]/div[6]/textarea[1]</t>
-  </si>
-  <si>
     <t>NBresponse</t>
   </si>
   <si>
@@ -435,9 +424,6 @@
     <t>(//*[text()='Reset'])</t>
   </si>
   <si>
-    <t>/html/body/div[3]/ul/li</t>
-  </si>
-  <si>
     <t>(//textarea[@class="z-textbox"])[2]</t>
   </si>
   <si>
@@ -649,6 +635,96 @@
   </si>
   <si>
     <t>(//button[@type="button"])[7]</t>
+  </si>
+  <si>
+    <t>//ul[@class="z-combobox-content"]/li</t>
+  </si>
+  <si>
+    <t>StatusDeviceCommFailure</t>
+  </si>
+  <si>
+    <t>(//*[text()='Device Communication failure'])</t>
+  </si>
+  <si>
+    <t>IMSI</t>
+  </si>
+  <si>
+    <t>//input[@title="IMSI"]</t>
+  </si>
+  <si>
+    <t>ConfigSystemParaMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()='Configure System Parameter'])</t>
+  </si>
+  <si>
+    <t>BatchUploadTab</t>
+  </si>
+  <si>
+    <t>(//*[text()='Batch Upload'])</t>
+  </si>
+  <si>
+    <t>PasswordPolicyTab</t>
+  </si>
+  <si>
+    <t>(//*[text()='Password Policy'])</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-combobox-input"])[5]</t>
+  </si>
+  <si>
+    <t>LoopbackStatusDropdown</t>
+  </si>
+  <si>
+    <t>valuesLoopbackStatusDropdown</t>
+  </si>
+  <si>
+    <t>SaveBtn</t>
+  </si>
+  <si>
+    <t>(//*[text()='Save'])</t>
+  </si>
+  <si>
+    <t>enableRadioBtn</t>
+  </si>
+  <si>
+    <t>disableRadioBtn</t>
+  </si>
+  <si>
+    <t>loopbackResponse</t>
+  </si>
+  <si>
+    <t>(//textarea[@class="z-textbox"])[4]</t>
+  </si>
+  <si>
+    <t>IntellzaConfigStatus</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-combobox-input"])[4]</t>
+  </si>
+  <si>
+    <t>valuesIntellzaConfigStatus</t>
+  </si>
+  <si>
+    <t>IntellzaDeliveryStatus</t>
+  </si>
+  <si>
+    <t>(//td[@class="z-cell"])[33]/span</t>
+  </si>
+  <si>
+    <t>(//td[@class="z-cell"])[32]/span</t>
+  </si>
+  <si>
+    <t>(//td[@class="z-cell"])[24]/a</t>
+  </si>
+  <si>
+    <t>(//td[@class="z-cell"])[28]/span</t>
+  </si>
+  <si>
+    <t>IntellzaResponse</t>
+  </si>
+  <si>
+    <t>(//textarea[@class="z-textbox"])[3]</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1084,87 +1160,87 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1196,34 +1272,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1255,58 +1331,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1315,6 +1391,97 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -1335,74 +1502,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -1431,130 +1598,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1583,7 +1750,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1591,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1599,23 +1766,23 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1641,58 +1808,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1700,7 +1867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1718,71 +1885,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1792,10 +1914,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1810,10 +1933,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1981,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1850,7 +1989,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1858,23 +1997,23 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1884,10 +2023,41 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1905,90 +2075,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2022,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2030,15 +2200,15 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2048,9 +2218,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2067,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2075,7 +2247,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2083,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2091,55 +2263,63 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2148,35 +2328,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2196,18 +2347,65 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2217,9 +2415,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2237,42 +2437,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2304,34 +2512,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2339,39 +2547,39 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2381,11 +2589,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2403,34 +2609,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
+++ b/dSP/src/main/java/com/testdata/XPathForDSP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="6675" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="18225" windowHeight="6675" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,11 @@
     <sheet name="SingleCommandExecution" sheetId="8" r:id="rId15"/>
     <sheet name="ServiceOrderDetails" sheetId="9" r:id="rId16"/>
     <sheet name="ServiceOrder" sheetId="10" r:id="rId17"/>
-    <sheet name="CreateScreen" sheetId="11" r:id="rId18"/>
-    <sheet name="SearchNBOrder" sheetId="12" r:id="rId19"/>
-    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId20"/>
-    <sheet name="NBSimulatorAddRequest" sheetId="14" r:id="rId21"/>
+    <sheet name="SearchTestProcessFlowScreen" sheetId="22" r:id="rId18"/>
+    <sheet name="CreateTestProcessFlowScreen" sheetId="11" r:id="rId19"/>
+    <sheet name="SearchNBOrder" sheetId="12" r:id="rId20"/>
+    <sheet name="ServiceOrderDetailsSubPage" sheetId="13" r:id="rId21"/>
+    <sheet name="NBSimulatorAddRequest" sheetId="14" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
   <oleSize ref="A1:R20"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="246">
   <si>
     <t>entity</t>
   </si>
@@ -292,18 +293,6 @@
     <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[2]/div[1]/div[2]/div[1]/div[1]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[1]/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr/td[1]/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr[1]/td[2]/input[1]</t>
   </si>
   <si>
-    <t>inputFieldsLable</t>
-  </si>
-  <si>
-    <t>inputFieldsValue</t>
-  </si>
-  <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[5]/div[1]/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr/td/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr[1]/td[2]/input</t>
-  </si>
-  <si>
-    <t>/html[1]/body[1]/div[1]/div[2]/div[1]/div[1]/div[3]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[2]/div[2]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[1]/div[5]/div[1]/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr/td/div[1]/div[1]/div[3]/table[1]/tbody[1]/tr[1]/td[1]</t>
-  </si>
-  <si>
     <t>createBtn</t>
   </si>
   <si>
@@ -725,6 +714,66 @@
   </si>
   <si>
     <t>(//textarea[@class="z-textbox"])[3]</t>
+  </si>
+  <si>
+    <t>TestCategoryMainMenu</t>
+  </si>
+  <si>
+    <t>TestProcessFlowOptionMenu</t>
+  </si>
+  <si>
+    <t>TestProcessFlowJsonOptionMenu</t>
+  </si>
+  <si>
+    <t>(//*[text()="Test Process Flow Json"])</t>
+  </si>
+  <si>
+    <t>(//*[text()="Test Process Flow"])</t>
+  </si>
+  <si>
+    <t>(//*[text()="Test Category"])</t>
+  </si>
+  <si>
+    <t>(//*[text()='Create'])</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[1]</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[2]</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[3]</t>
+  </si>
+  <si>
+    <t>ExternalReferenceID</t>
+  </si>
+  <si>
+    <t>INP_IMSI</t>
+  </si>
+  <si>
+    <t>INP_KI</t>
+  </si>
+  <si>
+    <t>INP_K4</t>
+  </si>
+  <si>
+    <t>INP_CATEGORY</t>
+  </si>
+  <si>
+    <t>INP_SUB_CATEGORY</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[5]</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[6]</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[7]</t>
+  </si>
+  <si>
+    <t>(//input[@class="z-textbox"])[8]</t>
   </si>
 </sst>
 </file>
@@ -1160,76 +1209,76 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -1237,7 +1286,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -1272,31 +1321,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -1331,55 +1380,55 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -1414,66 +1463,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1483,9 +1532,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1542,34 +1593,58 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1684,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1625,7 +1700,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1641,7 +1716,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1779,10 +1854,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1840,26 +1915,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1869,9 +1944,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1885,26 +1962,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1914,12 +1999,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1933,26 +2015,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2023,6 +2129,54 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2041,10 +2195,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -2075,74 +2229,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2155,10 +2309,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2205,10 +2359,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2417,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2279,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2295,7 +2449,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2308,18 +2462,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2350,15 +2504,15 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2389,7 +2543,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2402,10 +2556,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2437,50 +2591,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2512,34 +2666,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2552,34 +2706,34 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2609,31 +2763,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -2641,26 +2795,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
